--- a/diagramme/auswertung_anhang.xlsx
+++ b/diagramme/auswertung_anhang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12740" yWindow="460" windowWidth="19800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -201,24 +201,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:G49"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="M19" sqref="I3:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,12 +516,12 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -573,7 +573,6 @@
         <v>11</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -602,7 +601,6 @@
         <v>23</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -631,7 +629,6 @@
         <v>12</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -660,7 +657,6 @@
         <v>14</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -689,7 +685,6 @@
         <v>13</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -718,7 +713,6 @@
         <v>22</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -747,7 +741,6 @@
         <v>18</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -776,7 +769,6 @@
         <v>13</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -805,7 +797,6 @@
         <v>13</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -840,7 +831,6 @@
         <v>13</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -855,7 +845,6 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -872,14 +861,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,7 +887,6 @@
         <v>15</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -928,7 +915,6 @@
         <v>1</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -957,7 +943,6 @@
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1043,12 +1028,12 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1199,7 +1184,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1504,7 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1859,12 +1844,12 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I53" s="1"/>
@@ -2020,1387 +2005,1451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection sqref="A1:F73"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>19</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="H3">
+        <f>SUM(B3:F3)</f>
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <f>MEDIAN(H3:H17)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="H4">
+        <f t="shared" ref="H4:H17" si="0">SUM(B4:F4)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>16</v>
       </c>
-      <c r="F6" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>19</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>14</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>23</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>23</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>21</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>16</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>22</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
         <v>18</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
         <v>13</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>24</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>24</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
         <v>14</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E15" s="6">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>7</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>8</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>14</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>14</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>7</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>7</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
         <v>5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="6">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>4</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="6">
-        <v>12</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="3">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3">
         <v>13</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
         <v>23</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>21</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="6">
-        <v>12</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="3">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
         <v>16</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3">
         <v>17</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>9</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>15</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>17</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>22</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6">
-        <v>12</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="3">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3">
         <v>4</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>13</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>18</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>13</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>23</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>21</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="3">
         <v>11</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>17</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>26</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>13</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>10</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>16</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>25</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="3">
         <v>11</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>11</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>25</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>26</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>10</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>16</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>19</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>24</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="3">
         <v>9</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>10</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="3">
         <v>14</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3">
         <v>21</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="6">
-        <v>12</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="3">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3">
         <v>16</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3">
         <v>26</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>10</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>11</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>15</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>15</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>13</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>8</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="3">
         <v>14</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>16</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <v>10</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>9</v>
       </c>
-      <c r="D53" s="6">
-        <v>12</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D53" s="3">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3">
         <v>17</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <v>10</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>9</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
         <v>17</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3">
         <v>18</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>0.53846153846153844</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="3">
         <v>0.17391304347826086</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="3">
         <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>0.25</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="3">
         <v>0.1875</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="3">
         <v>0.35294117647058826</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="3">
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>0.2</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="3">
         <v>0.31818181818181818</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="3">
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="3">
         <v>0.25</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="3">
         <v>0.5</v>
       </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="3">
         <v>0.15384615384615385</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="3">
         <v>0.21739130434782608</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="3">
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="3">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
         <v>0.17647058823529413</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="3">
         <v>0.11538461538461539</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="3">
         <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="3">
         <v>0.08</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="3">
         <v>0.36363636363636365</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>0.27272727272727271</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="3">
         <v>0.08</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="3">
         <v>0.19230769230769232</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="3">
         <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="3">
         <v>0.1</v>
       </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6">
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
         <v>0.15789473684210525</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="3">
         <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="3">
         <v>0.3</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="3">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="3">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="3">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6">
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
         <v>0.1875</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="3">
         <v>0.04</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="3">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="3">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="3">
         <v>0.2</v>
       </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
         <v>0.2</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>0.23076923076923078</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="3">
         <v>0.25</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="3">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="3">
         <v>0.25</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="3">
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>0.2</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="3">
         <v>0.22222222222222221</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="3">
         <v>0.11764705882352941</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>0.2</v>
       </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
         <v>0.17647058823529413</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="3">
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="4">
         <v>0.2</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>0.2</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="4">
         <v>0.15789473684210525</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="4">
         <v>0.11538461538461539</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
         <v>0.13043478260869565</v>
       </c>
     </row>

--- a/diagramme/auswertung_anhang.xlsx
+++ b/diagramme/auswertung_anhang.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="460" windowWidth="19800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Tabelle2!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -203,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,15 +216,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -500,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M19" sqref="I3:M19"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection sqref="A1:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,23 +526,23 @@
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1"/>
@@ -551,25 +553,25 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>11</v>
       </c>
       <c r="I3" s="1"/>
@@ -579,25 +581,25 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>23</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>22</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>23</v>
       </c>
       <c r="I4" s="1"/>
@@ -607,25 +609,25 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
         <v>17</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>12</v>
       </c>
       <c r="I5" s="1"/>
@@ -635,25 +637,25 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>14</v>
       </c>
       <c r="I6" s="1"/>
@@ -663,25 +665,25 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>13</v>
       </c>
       <c r="I7" s="1"/>
@@ -691,25 +693,25 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>17</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>22</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>22</v>
       </c>
       <c r="I8" s="1"/>
@@ -719,25 +721,25 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>11</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>18</v>
       </c>
       <c r="I9" s="1"/>
@@ -747,25 +749,25 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>14</v>
       </c>
-      <c r="E10" s="1">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
         <v>15</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>13</v>
       </c>
       <c r="I10" s="1"/>
@@ -775,25 +777,25 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>13</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>19</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>13</v>
       </c>
       <c r="I11" s="1"/>
@@ -803,30 +805,30 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <f>MEDIAN(B3:B11)</f>
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:G12" si="0">MEDIAN(C3:C11)</f>
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -837,13 +839,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="I13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -867,23 +869,23 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1"/>
@@ -893,25 +895,25 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="1"/>
@@ -921,25 +923,25 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -949,25 +951,25 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="2"/>
@@ -978,25 +980,25 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
@@ -1007,25 +1009,25 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="I20" s="7"/>
@@ -1036,25 +1038,25 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="I21" s="1"/>
@@ -1065,25 +1067,25 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="I22" s="1"/>
@@ -1094,25 +1096,25 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>4</v>
       </c>
       <c r="I23" s="1"/>
@@ -1123,25 +1125,25 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>2</v>
       </c>
       <c r="I24" s="1"/>
@@ -1152,13 +1154,13 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1184,23 +1186,23 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1"/>
@@ -1211,25 +1213,25 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>10</v>
       </c>
-      <c r="E28" s="1">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3">
         <v>14</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>12</v>
       </c>
       <c r="I28" s="1"/>
@@ -1240,25 +1242,25 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>11</v>
       </c>
-      <c r="C29" s="1">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3">
         <v>23</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>15</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>22</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>23</v>
       </c>
       <c r="I29" s="1"/>
@@ -1269,25 +1271,25 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3">
         <v>10</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>11</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>18</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>13</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>19</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>15</v>
       </c>
       <c r="I30" s="1"/>
@@ -1298,25 +1300,25 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>14</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>17</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>20</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>13</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>16</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>14</v>
       </c>
       <c r="I31" s="1"/>
@@ -1327,25 +1329,25 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="3">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
         <v>14</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>9</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>16</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>15</v>
       </c>
       <c r="I32" s="1"/>
@@ -1356,25 +1358,25 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="3">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3">
         <v>13</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>22</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>17</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>23</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>27</v>
       </c>
       <c r="I33" s="1"/>
@@ -1385,25 +1387,25 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>11</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>17</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>13</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>17</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>22</v>
       </c>
       <c r="I34" s="1"/>
@@ -1414,25 +1416,25 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>11</v>
       </c>
-      <c r="C35" s="1">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="3">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3">
         <v>17</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>15</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>15</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>17</v>
       </c>
       <c r="I35" s="1"/>
@@ -1443,25 +1445,25 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="1">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="3">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
         <v>14</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>15</v>
       </c>
-      <c r="E36" s="1">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="3">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3">
         <v>20</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>15</v>
       </c>
       <c r="I36" s="1"/>
@@ -1472,13 +1474,13 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1487,15 +1489,13 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1504,25 +1504,13 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1531,27 +1519,13 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G40" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1560,27 +1534,13 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C41" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1589,27 +1549,13 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1618,27 +1564,13 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E43" s="1">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1647,27 +1579,13 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.13333333333333333</v>
-      </c>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1676,27 +1594,13 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.18518518518518517</v>
-      </c>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1705,27 +1609,13 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.35294117647058826</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.18181818181818182</v>
-      </c>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1734,27 +1624,13 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.23529411764705882</v>
-      </c>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1763,27 +1639,15 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.13333333333333333</v>
-      </c>
+      <c r="A48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1792,26 +1656,24 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0.13333333333333333</v>
+      <c r="A49" s="6"/>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1821,13 +1683,27 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1836,6 +1712,27 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1844,6 +1741,27 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -1852,6 +1770,27 @@
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E53" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1860,6 +1799,27 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.13333333333333333</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1868,6 +1828,27 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.18518518518518517</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -1876,6 +1857,27 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.18181818181818182</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1884,6 +1886,27 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.23529411764705882</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -1892,6 +1915,27 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C58" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.13333333333333333</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -1900,6 +1944,27 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.13333333333333333</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -1992,7 +2057,7 @@
     <mergeCell ref="I52:N52"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="I20:N20"/>
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A48:G48"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A26:G26"/>
@@ -2005,25 +2070,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -2041,7 +2106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -2060,16 +2125,8 @@
       <c r="F3" s="3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <f>SUM(B3:F3)</f>
-        <v>62</v>
-      </c>
-      <c r="I3">
-        <f>MEDIAN(H3:H17)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2088,12 +2145,8 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H17" si="0">SUM(B4:F4)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2112,12 +2165,8 @@
       <c r="F5" s="3">
         <v>8</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2136,12 +2185,8 @@
       <c r="F6" s="3">
         <v>12</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -2160,12 +2205,8 @@
       <c r="F7" s="3">
         <v>22</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2184,12 +2225,8 @@
       <c r="F8" s="3">
         <v>19</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2208,12 +2245,8 @@
       <c r="F9" s="3">
         <v>23</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2232,12 +2265,8 @@
       <c r="F10" s="3">
         <v>17</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2256,12 +2285,8 @@
       <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -2280,12 +2305,8 @@
       <c r="F12" s="3">
         <v>15</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -2304,12 +2325,8 @@
       <c r="F13" s="3">
         <v>13</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2328,12 +2345,8 @@
       <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2352,12 +2365,8 @@
       <c r="F15" s="3">
         <v>14</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2376,12 +2385,8 @@
       <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2400,12 +2405,8 @@
       <c r="F17" s="3">
         <v>14</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2433,18 +2434,18 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2769,687 +2770,687 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="3">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3">
-        <v>23</v>
-      </c>
-      <c r="E40" s="3">
-        <v>21</v>
-      </c>
-      <c r="F40" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3">
-        <v>12</v>
-      </c>
-      <c r="C41" s="3">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>16</v>
-      </c>
-      <c r="E41" s="3">
-        <v>17</v>
-      </c>
-      <c r="F41" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="3">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3">
-        <v>15</v>
-      </c>
-      <c r="D42" s="3">
-        <v>17</v>
-      </c>
-      <c r="E42" s="3">
-        <v>22</v>
-      </c>
-      <c r="F42" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="3">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3">
-        <v>13</v>
-      </c>
-      <c r="E43" s="3">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="3">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3">
-        <v>23</v>
-      </c>
-      <c r="E44" s="3">
-        <v>21</v>
-      </c>
-      <c r="F44" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="3">
-        <v>11</v>
-      </c>
-      <c r="C45" s="3">
-        <v>10</v>
-      </c>
-      <c r="D45" s="3">
-        <v>17</v>
-      </c>
-      <c r="E45" s="3">
-        <v>26</v>
-      </c>
-      <c r="F45" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="3">
-        <v>13</v>
-      </c>
-      <c r="C46" s="3">
-        <v>10</v>
-      </c>
-      <c r="D46" s="3">
-        <v>16</v>
-      </c>
-      <c r="E46" s="3">
-        <v>25</v>
-      </c>
-      <c r="F46" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="3">
-        <v>11</v>
-      </c>
-      <c r="C47" s="3">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3">
-        <v>25</v>
-      </c>
-      <c r="E47" s="3">
-        <v>26</v>
-      </c>
-      <c r="F47" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="3">
-        <v>10</v>
-      </c>
-      <c r="C48" s="3">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3">
-        <v>24</v>
-      </c>
-      <c r="F48" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="3">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3">
-        <v>14</v>
-      </c>
-      <c r="E49" s="3">
-        <v>21</v>
-      </c>
-      <c r="F49" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B50" s="3">
         <v>12</v>
       </c>
       <c r="C50" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" s="3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F50" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B51" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3">
-        <v>15</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="F51" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B52" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3">
+        <v>17</v>
+      </c>
+      <c r="E52" s="3">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3">
         <v>14</v>
-      </c>
-      <c r="E52" s="3">
-        <v>16</v>
-      </c>
-      <c r="F52" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B53" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D53" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="3">
-        <v>17</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="F53" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="3">
+        <v>21</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="3">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>23</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21</v>
+      </c>
+      <c r="F54" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="3">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3">
         <v>10</v>
       </c>
-      <c r="C54" s="3">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>17</v>
       </c>
-      <c r="E54" s="3">
-        <v>18</v>
-      </c>
-      <c r="F54" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="3">
+        <v>26</v>
+      </c>
+      <c r="F55" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3">
         <v>16</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="E56" s="3">
+        <v>25</v>
+      </c>
+      <c r="F56" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="3">
         <v>11</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
+      <c r="C57" s="3">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3">
+        <v>25</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26</v>
+      </c>
+      <c r="F57" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B58" s="3">
-        <v>0.33333333333333331</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
-        <v>0.53846153846153844</v>
+        <v>16</v>
       </c>
       <c r="D58" s="3">
-        <v>0.17391304347826086</v>
+        <v>19</v>
       </c>
       <c r="E58" s="3">
-        <v>0.33333333333333331</v>
+        <v>24</v>
       </c>
       <c r="F58" s="3">
-        <v>0.21052631578947367</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B59" s="3">
-        <v>0.41666666666666669</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3">
-        <v>0.1875</v>
+        <v>14</v>
       </c>
       <c r="E59" s="3">
-        <v>0.35294117647058826</v>
+        <v>21</v>
       </c>
       <c r="F59" s="3">
-        <v>0.44444444444444442</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B60" s="3">
-        <v>0.1111111111111111</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>5.8823529411764705E-2</v>
+        <v>25</v>
       </c>
       <c r="E60" s="3">
-        <v>0.31818181818181818</v>
+        <v>26</v>
       </c>
       <c r="F60" s="3">
-        <v>0.42857142857142855</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B61" s="3">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E61" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B62" s="3">
+        <v>13</v>
       </c>
       <c r="C62" s="3">
-        <v>0.15384615384615385</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3">
-        <v>0.21739130434782608</v>
+        <v>14</v>
       </c>
       <c r="E62" s="3">
-        <v>9.5238095238095233E-2</v>
+        <v>16</v>
       </c>
       <c r="F62" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B63" s="3">
-        <v>9.0909090909090912E-2</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3">
-        <v>0.17647058823529413</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0.05</v>
+        <v>17</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B64" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3">
-        <v>6.25E-2</v>
+        <v>17</v>
       </c>
       <c r="E64" s="3">
-        <v>0.08</v>
+        <v>18</v>
       </c>
       <c r="F64" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.19047619047619047</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="E66" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.13043478260869565</v>
-      </c>
+      <c r="A66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F67" s="3">
-        <v>6.25E-2</v>
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B68" s="3">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C68" s="3">
-        <v>0.1875</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="D68" s="3">
-        <v>0.04</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="E68" s="3">
-        <v>7.6923076923076927E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F68" s="3">
-        <v>7.1428571428571425E-2</v>
+        <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3">
-        <v>0.2</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C69" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D69" s="3">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="E69" s="3">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>32</v>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3">
-        <v>0.23076923076923078</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C70" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D70" s="3">
-        <v>7.1428571428571425E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E70" s="3">
-        <v>0.25</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="F70" s="3">
-        <v>0.17647058823529413</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B71" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C71" s="3">
-        <v>0.22222222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="D71" s="3">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>32</v>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F74" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E78" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D80" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B82" s="3">
         <v>0.2</v>
       </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
         <v>0.17647058823529413</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E82" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F82" s="3">
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B83" s="4">
         <v>0.2</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C83" s="4">
         <v>0.2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D83" s="4">
         <v>0.15789473684210525</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E83" s="4">
         <v>0.11538461538461539</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F83" s="4">
         <v>0.13043478260869565</v>
       </c>
     </row>
@@ -3457,8 +3458,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A66:F66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diagramme/auswertung_anhang.xlsx
+++ b/diagramme/auswertung_anhang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10320" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -503,27 +503,27 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection sqref="A1:G59"/>
+      <selection activeCell="A15" sqref="A15:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -853,15 +853,15 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="I14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1030,12 +1030,12 @@
       <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1169,15 +1169,15 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1489,13 +1489,13 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1504,13 +1504,13 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1519,13 +1519,13 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1534,13 +1534,13 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1549,13 +1549,13 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1564,13 +1564,13 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1579,13 +1579,13 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1594,13 +1594,13 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1609,13 +1609,13 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1624,13 +1624,13 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1639,15 +1639,15 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1762,12 +1762,12 @@
       <c r="G52" s="3">
         <v>0.2</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
@@ -2072,21 +2072,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:F83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F36" sqref="A22:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2435,14 +2435,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
@@ -2771,14 +2771,14 @@
       <c r="F37" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -3107,14 +3107,14 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
